--- a/2022_09_11_query/RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022.xlsx
+++ b/2022_09_11_query/RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022.xlsx
@@ -345,14 +345,88 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>RESOLUÇÃO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EMPRESA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AUTORIZAÇÃO</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MARCA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PROCESSO</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>REGISTRO</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VENDA E EMPREGO</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>VENCIMENTO</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>APRESENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>VALIDADE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CATEGORIA</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ASSUNTO
+PETIÇÃO</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>EXPEDIENTE E PETIÇÃO</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>VERSÃO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/2022_09_11_query/RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022.xlsx
+++ b/2022_09_11_query/RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,6 +426,3683 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AROMASIL INDÚSTRIA, COMÉRCO E DISTRIBUIÇÃO LTDA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.06889-6</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESIFETANTE HORTIFRUTÍCOLA - AROMASIL</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.019079/2022-15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6889.0002.001-4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3211062 DESINFETANTE PARA HORTIFRUTÍCOLAS</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09861-7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Desinfetante</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.432528/2021-28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9861.0001.001-7</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brisa do Oceano 500 mL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09861-7</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Desinfetante</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.432528/2021-28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9861.0001.002-5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brisa do Oceano 1L + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09861-7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Desinfetante</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.432528/2021-28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9861.0001.003-3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brisa do Oceano 2L + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09861-7</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Desinfetante</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.432528/2021-28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9861.0001.004-1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brisa do Oceano 5L + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09861-7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Desinfetante</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.432528/2021-28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9861.0001.005-1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Limão 500 mL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09861-7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Desinfetante</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.432528/2021-28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9861.0001.006-8</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Limão 1L + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09861-7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Desinfetante</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.432528/2021-28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9861.0001.007-6</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Limão 2L + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09861-7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Auro Desinfetante</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.432528/2021-28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9861.0001.008-4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Limão 5L + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BASTON INDÚSTRIA DE AEROSSOIS LTDA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04067-3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁLCOOL AEROSSOL SUPER DOM</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.023555/2022-94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4067.0078.001-8</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VERSÃO 1 + LATA AEROSSOL + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAUMINAS HIDROAZUL INDÚSTRIA E COMÉRCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02108-2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLOROCAL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.605821/2021-11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2108.0036.001-6</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/2031</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLOROCAL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.605821/2021-11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2108.0036.002-4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/2031</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TAMBOR PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BUSCHLE LEPPER SA.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00539-9</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRICLOROBEL</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.523722/2013-45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0539.0015.001-4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2029</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLISTER DE ALUMINIO</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRICLOROBEL</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.523722/2013-45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0539.0015.002-2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2029</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TUBO DE PLASTICO OPACO</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRICLOROBEL</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.523722/2013-45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0539.0015.003-0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2029</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BALDE PLASTICO</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRICLOROBEL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.523722/2013-45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0539.0015.004-9</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2029</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TAMBOR PLASTICO</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRICLOROBEL</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.523722/2013-45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0539.0015.005-7</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2029</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> POTE DE PLASTICO OPACO</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02711-4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIMPA PEDRAS DECAPISO</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.676328/2012-48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2711.0012.001-4</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2028</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIMPA PEDRAS DECAPISO</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.676328/2012-48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2711.0012.002-2</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2028</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.10754-8</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.001-8</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.002-6</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.003-4</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.004-2</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.005-0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.006-9</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.007-7</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.008-5</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.009-3</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.010-7</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.011-5</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.012-3</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.013-1</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.014-1</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.015-8</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.016-6</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.017-4</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.018-2</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECO QUÍMICA INDÚSTRIA HIGIENISTA LTDA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02553-9</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRATIC SUPER FOOD</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.179234/2018-67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2553.0036.001-7</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRATIC SUPER FOOD</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.179234/2018-67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2553.0036.002-5</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECOLIMP S PRODUTOS DE LIMPEZA E LOCACAO DE IMOVEIS EIRELI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.08400-8</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hipoclorito 8% Mixlar</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.990753/2020-01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8400.0006.001-8</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hipoclorito de Sódio 8% + GALAO PLASTICO + CAIXA DE PLASTICO</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04145-2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER STAIN OUT</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.456414/2020-92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4145.0075.001-9</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222040 TIRA MANCHAS</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04145-2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER STAIN OUT</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.456414/2020-92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4145.0075.002-7</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222040 TIRA MANCHAS</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04145-2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER HEAVY CLEAN ULTRA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.515239/2020-82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4145.0076.001-4</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04145-2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER HEAVY CLEAN ULTRA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.515239/2020-82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4145.0076.002-2</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXIMIA INDUSTRIAL EIRELI-ME</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.07087-1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAV DET 1000</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.706285/2020-99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.7087.0016.001-5</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BALDE</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXIMIA INDUSTRIAL EIRELI-ME</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.07087-1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAV DET 1000</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.706285/2020-99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.7087.0016.002-3</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SACO</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GROW QUIMICA E FARMACEUTICA LTDA.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04407-8</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PROACTION OXI</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.098607/2017-01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4407.0020.001-1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/2027</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PROACTION OXI</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.098607/2017-01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4407.0020.002-1</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/2027</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GALAO PLASTICO</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04020-0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DIOXXO</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.236013/2013-34</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4020.0021.001-1</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 07/2028</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INDUSTRIA ITALIANA IMPORTADORA E DISTRIBUIDORA LTDA</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.05859-6</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PROTTETE ULTRA 4D</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.909769/2020-98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5859.0004.001-4</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> POTE DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MULTQUÍMICA PRODUTOS QUÍMICOS LTDA</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02599-9</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLACIAL ACÉTIC</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.730094/2011-91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2599.0150.001-0</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2027</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3769 REG. SANEANTES - Recurso Administrativo</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLACIAL ACÉTIC</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.730094/2011-91</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2599.0150.002-9</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2027</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3769 REG. SANEANTES - Recurso Administrativo</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEOGEN DO BRASIL INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00425-4</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OZZ RI-DO-RATO PLUS</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.007795/2011-34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0425.0137.001-5</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2026</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SACO PLASTICO</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INSETICIDA IG MAX</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.362508/2016-49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0425.0166.001-3</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2027</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03144-2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.469010/2008-72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3144.0010.001-6</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/2028</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO OPACO</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.469010/2008-72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 000</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLÁSTICA OPACA</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.469010/2008-72</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 000</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GALÃO PLÁSTICO</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE CHOQUE</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.470512/2008-46</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3144.0009.001-0</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/2023</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE CHOQUE</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.470512/2008-46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GALÃO PLÁSTICO</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE CHOQUE</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.470512/2008-46</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 000</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLÁSTICA OPACA</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01780-6</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENZI-TEC EXTRA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.635133/2014-74</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1780.0054.001-2</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12/2029</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222020 DETERGENTE ENZIMÁTICO</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 334 REG. SANEANTES - Revalidação de Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENZI-TEC EXTRA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.635133/2014-74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1780.0054.002-0</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12/2029</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222020 DETERGENTE ENZIMÁTICO</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 334 REG. SANEANTES - Revalidação de Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENZI-TEC EXTRA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.635133/2014-74</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1780.0054.003-9</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12/2029</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222020 DETERGENTE ENZIMÁTICO</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 334 REG. SANEANTES - Revalidação de Registro</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
